--- a/DeepRL/Data/grid_size.xlsx
+++ b/DeepRL/Data/grid_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Automate Chip Design Using ML and DL\Model Work\DeepRL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ABC076-265F-4548-8E62-3E990A764959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311A6CE-1402-4086-869C-087F72BB5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>CIRCUIT</t>
   </si>
@@ -58,6 +58,51 @@
   </si>
   <si>
     <t>s38584.v</t>
+  </si>
+  <si>
+    <t>i2c.v</t>
+  </si>
+  <si>
+    <t>div.v</t>
+  </si>
+  <si>
+    <t>memctrl.v</t>
+  </si>
+  <si>
+    <t>multiplier.v</t>
+  </si>
+  <si>
+    <t>square.v</t>
+  </si>
+  <si>
+    <t>sqrt.v</t>
+  </si>
+  <si>
+    <t>voter.v</t>
+  </si>
+  <si>
+    <t>total_gates</t>
+  </si>
+  <si>
+    <t>n_nand</t>
+  </si>
+  <si>
+    <t>n_and</t>
+  </si>
+  <si>
+    <t>n_or</t>
+  </si>
+  <si>
+    <t>n_nor</t>
+  </si>
+  <si>
+    <t>n_not</t>
+  </si>
+  <si>
+    <t>n_buf</t>
+  </si>
+  <si>
+    <t>n_fflopd</t>
   </si>
 </sst>
 </file>
@@ -383,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,109 +446,561 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>1669</v>
+      </c>
+      <c r="E3">
+        <v>498</v>
+      </c>
+      <c r="F3">
+        <v>92</v>
+      </c>
+      <c r="G3">
+        <v>298</v>
+      </c>
+      <c r="H3">
+        <v>68</v>
+      </c>
+      <c r="I3">
+        <v>490</v>
+      </c>
+      <c r="J3">
+        <v>223</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>2307</v>
+      </c>
+      <c r="E4">
+        <v>718</v>
+      </c>
+      <c r="F4">
+        <v>214</v>
+      </c>
+      <c r="G4">
+        <v>454</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>581</v>
+      </c>
+      <c r="J4">
+        <v>313</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>2416</v>
+      </c>
+      <c r="E5">
+        <v>256</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2128</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>3513</v>
+      </c>
+      <c r="E6">
+        <v>776</v>
+      </c>
+      <c r="F6">
+        <v>244</v>
+      </c>
+      <c r="G6">
+        <v>1028</v>
+      </c>
+      <c r="H6">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>876</v>
+      </c>
+      <c r="J6">
+        <v>535</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B7" s="1">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>1367</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>502</v>
+      </c>
+      <c r="H7">
+        <v>123</v>
+      </c>
+      <c r="I7">
+        <v>262</v>
+      </c>
+      <c r="J7">
+        <v>281</v>
+      </c>
+      <c r="K7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>244</v>
+      </c>
+      <c r="C8" s="1">
+        <v>244</v>
+      </c>
+      <c r="D8">
+        <v>13452</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7411</v>
+      </c>
+      <c r="H8" s="1">
+        <v>576</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2491</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1512</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1462</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>229</v>
+      </c>
+      <c r="C9" s="1">
+        <v>229</v>
+      </c>
+      <c r="D9">
+        <v>11864</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6436</v>
+      </c>
+      <c r="H9" s="1">
+        <v>899</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2116</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1254</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1159</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>2037</v>
+      </c>
+      <c r="E10">
+        <v>1156</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>834</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>637</v>
+      </c>
+      <c r="C11" s="1">
+        <v>637</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100985</v>
+      </c>
+      <c r="E11" s="1">
+        <v>56536</v>
+      </c>
+      <c r="F11" s="1">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44356</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>573</v>
+      </c>
+      <c r="C12" s="1">
+        <v>573</v>
+      </c>
+      <c r="D12">
+        <v>81588</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45471</v>
+      </c>
+      <c r="F12" s="1">
+        <v>527</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1">
+        <v>35305</v>
+      </c>
+      <c r="J12" s="1">
+        <v>235</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>418</v>
+      </c>
+      <c r="C13" s="1">
+        <v>418</v>
+      </c>
+      <c r="D13">
+        <v>42974</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23297</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1255</v>
+      </c>
+      <c r="I13" s="1">
+        <v>18422</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>377</v>
+      </c>
+      <c r="C14" s="1">
+        <v>377</v>
+      </c>
+      <c r="D14">
+        <v>35264</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18230</v>
+      </c>
+      <c r="F14" s="1">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>17008</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>385</v>
+      </c>
+      <c r="C15" s="1">
+        <v>385</v>
+      </c>
+      <c r="D15">
+        <v>36797</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20365</v>
+      </c>
+      <c r="F15" s="1">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16367</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>324</v>
+      </c>
+      <c r="C16" s="1">
+        <v>324</v>
+      </c>
+      <c r="D16">
+        <v>25993</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13032</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12960</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
